--- a/data/initial/student_list.xlsx
+++ b/data/initial/student_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengy\Desktop\Workspace\School\NTU\SC2002 (OOP)\sc2002-project\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengy\Desktop\Workspace\School\NTU\SC2002 (OOP)\sc2002-project\data\initial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20FD5F-BFE0-4F9A-87D5-E177827CDBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,39 +58,6 @@
     <t>RAWAL</t>
   </si>
   <si>
-    <t>YCHERN@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>KOH1@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>BR015@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>CT113@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>YCN019@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>DL007@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>DON84@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>ELI34@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>LE51@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>SL22@e.ntu.edu.sg;</t>
-  </si>
-  <si>
-    <t>AKY013@e.ntu.edu.sg;</t>
-  </si>
-  <si>
     <t>Faculty</t>
   </si>
   <si>
@@ -126,12 +92,45 @@
   </si>
   <si>
     <t>LIU</t>
+  </si>
+  <si>
+    <t>YCHERN@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>KOH1@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>BR015@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>CT113@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>YCN019@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>DL007@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>DON84@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>ELI34@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>LE51@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>SL22@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>AKY013@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,20 +467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,144 +488,144 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B663E933-92D6-47AE-9545-627F61C39D32}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{91C33AD5-35F2-4A3A-959A-C87C2162E9B9}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3361E6EC-8183-4CC2-9EB5-4D8406720EFD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{955E528D-1008-47EA-A35C-104EB72DF944}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{54EF69E7-4E62-469D-AA1E-4618A065A189}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7254179A-C06A-483F-AAD0-CC3AAA78DFAB}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{4F024CCC-B278-4021-BDF8-EBF854AA15C1}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{4BC2904C-82AC-418F-8A40-8AEE365A78F6}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{D76D6340-A367-4E32-ABF4-257D40F0ED14}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{4E0422A0-CAA4-4F75-82E6-A434E940A6B7}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{3F90C71F-80BE-4B48-977D-3B37A5AD0B30}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
